--- a/CuadroMandoIndicadores.xlsx
+++ b/CuadroMandoIndicadores.xlsx
@@ -23,8 +23,47 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Maia Zietzke</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Representa la cantidad de años que se tienen de mediciones por ejemplo 2015 y 2016
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Representa la cantidad de valores comparativos que hay. Por ejemplo Top BMK y BMK Mejores</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="134">
   <si>
     <t>Indicador</t>
   </si>
@@ -182,15 +221,6 @@
     <t>J2</t>
   </si>
   <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>P6</t>
-  </si>
-  <si>
     <t>J4</t>
   </si>
   <si>
@@ -203,21 +233,12 @@
     <t>J11</t>
   </si>
   <si>
-    <t>P9</t>
-  </si>
-  <si>
-    <t>P11</t>
-  </si>
-  <si>
     <t>J12</t>
   </si>
   <si>
     <t>J15</t>
   </si>
   <si>
-    <t>P15</t>
-  </si>
-  <si>
     <t>B17</t>
   </si>
   <si>
@@ -239,15 +260,9 @@
     <t>J17</t>
   </si>
   <si>
-    <t>P17</t>
-  </si>
-  <si>
     <t>J19</t>
   </si>
   <si>
-    <t>P19</t>
-  </si>
-  <si>
     <t>J21</t>
   </si>
   <si>
@@ -257,20 +272,206 @@
     <t>J26</t>
   </si>
   <si>
-    <t>P21</t>
-  </si>
-  <si>
-    <t>P23</t>
-  </si>
-  <si>
-    <t>P26</t>
+    <t>B31</t>
+  </si>
+  <si>
+    <t>H31</t>
+  </si>
+  <si>
+    <t>B35</t>
+  </si>
+  <si>
+    <t>B38</t>
+  </si>
+  <si>
+    <t>H35</t>
+  </si>
+  <si>
+    <t>H38</t>
+  </si>
+  <si>
+    <t>B44</t>
+  </si>
+  <si>
+    <t>B46</t>
+  </si>
+  <si>
+    <t>B48</t>
+  </si>
+  <si>
+    <t>H44</t>
+  </si>
+  <si>
+    <t>H46</t>
+  </si>
+  <si>
+    <t>H48</t>
+  </si>
+  <si>
+    <t>B53</t>
+  </si>
+  <si>
+    <t>B56</t>
+  </si>
+  <si>
+    <t>B60</t>
+  </si>
+  <si>
+    <t>H53</t>
+  </si>
+  <si>
+    <t>H56</t>
+  </si>
+  <si>
+    <t>H60</t>
+  </si>
+  <si>
+    <t>J31</t>
+  </si>
+  <si>
+    <t>J33</t>
+  </si>
+  <si>
+    <t>J35</t>
+  </si>
+  <si>
+    <t>J38</t>
+  </si>
+  <si>
+    <t>J42</t>
+  </si>
+  <si>
+    <t>J44</t>
+  </si>
+  <si>
+    <t>J46</t>
+  </si>
+  <si>
+    <t>J48</t>
+  </si>
+  <si>
+    <t>J53</t>
+  </si>
+  <si>
+    <t>J56</t>
+  </si>
+  <si>
+    <t>J58</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>Q11</t>
+  </si>
+  <si>
+    <t>Q12</t>
+  </si>
+  <si>
+    <t>Q15</t>
+  </si>
+  <si>
+    <t>Q17</t>
+  </si>
+  <si>
+    <t>Q19</t>
+  </si>
+  <si>
+    <t>Q21</t>
+  </si>
+  <si>
+    <t>Q23</t>
+  </si>
+  <si>
+    <t>Q26</t>
+  </si>
+  <si>
+    <t>Q31</t>
+  </si>
+  <si>
+    <t>Q33</t>
+  </si>
+  <si>
+    <t>Q35</t>
+  </si>
+  <si>
+    <t>Q38</t>
+  </si>
+  <si>
+    <t>Q42</t>
+  </si>
+  <si>
+    <t>Q44</t>
+  </si>
+  <si>
+    <t>Q46</t>
+  </si>
+  <si>
+    <t>Q48</t>
+  </si>
+  <si>
+    <t>Q53</t>
+  </si>
+  <si>
+    <t>Q56</t>
+  </si>
+  <si>
+    <t>Q58</t>
+  </si>
+  <si>
+    <t>#Años</t>
+  </si>
+  <si>
+    <t>#Mejores</t>
+  </si>
+  <si>
+    <t>J64</t>
+  </si>
+  <si>
+    <t>J60</t>
+  </si>
+  <si>
+    <t>Q60</t>
+  </si>
+  <si>
+    <t>Q70</t>
+  </si>
+  <si>
+    <t>Indicadores Globales</t>
+  </si>
+  <si>
+    <t>Tabla</t>
+  </si>
+  <si>
+    <t>J72</t>
+  </si>
+  <si>
+    <t>P75</t>
+  </si>
+  <si>
+    <t>Resultados por dimensiones</t>
+  </si>
+  <si>
+    <t>J78</t>
+  </si>
+  <si>
+    <t>P82</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,8 +492,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,6 +546,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,19 +627,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -427,63 +638,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -765,493 +988,619 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G5" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="G6" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="G9" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="G10" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G11" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="E12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="D14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="D15" s="11" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="E15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="E17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="D19" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="D20" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="E20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="21" t="s">
+      <c r="D24" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="F24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="23" t="s">
+      <c r="C25" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="12" t="s">
+      <c r="F25" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="23" t="s">
+      <c r="C26" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="23" t="s">
+      <c r="F26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="15" t="s">
+      <c r="F27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="B28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="23" t="s">
+      <c r="C28" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="F28" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B29" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E31" s="2"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E32" s="2"/>
+      <c r="E32" s="1"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="2"/>
+      <c r="E33" s="1"/>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="2"/>
+      <c r="E34" s="1"/>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E35" s="2"/>
+      <c r="E35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A28"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>